--- a/ExperimentalData/Induced EMF/Induced Rectangular 2016-02-27.xlsx
+++ b/ExperimentalData/Induced EMF/Induced Rectangular 2016-02-27.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="20x50" sheetId="2" r:id="rId1"/>
+    <sheet name="20x50 5-5" sheetId="2" r:id="rId1"/>
     <sheet name="Template" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0">
+    <comment ref="B9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,12 +51,11 @@
             <color indexed="81"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">Left to right width
-</t>
+          <t>Left to right width of the circuit measured at the wire outer edge, hence the center to center width is this value munus one wire width.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="B10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +64,70 @@
             <color indexed="81"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t>Distance from closest part of loop to furthest.</t>
+          <t>Distance from the front to rear wires of the circuit measured at the wire outer edge, hence the center to center distance is this value munus one wire width.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Distance from driver front (Df) to passive front (Pf) in meters.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Distance from driver front (Df) to passive front (Pf) in meters.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Distance from driver front (Df) to passive rear (Pr) in meters.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Distance from driver rear (Dr) to passive front (Pf) in meters.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Distance from driver rear (Dr) to passive rear (Pr) in meters.</t>
         </r>
       </text>
     </comment>
@@ -83,7 +145,6 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
@@ -92,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0">
+    <comment ref="B9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,12 +161,23 @@
             <color indexed="81"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">Left to right width
-</t>
+          <t>Left to right width of the circuit measured at the wire outer edge, hence the center to center width is this value munus one wire width.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="B10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Distance from the front to rear wires of the circuit measured at the wire outer edge, hence the center to center distance is this value munus one wire width.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +186,44 @@
             <color indexed="81"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t>Distance from closest part of loop to furthest.</t>
+          <t>Distance from driver front (Df) to passive front (Pf) in meters.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Distance from driver front (Df) to passive rear (Pr) in meters.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Distance from driver rear (Dr) to passive front (Pf) in meters.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Distance from driver rear (Dr) to passive rear (Pr) in meters.</t>
         </r>
       </text>
     </comment>
@@ -123,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>Date:</t>
   </si>
@@ -164,15 +273,6 @@
     <t>Wire gauge:</t>
   </si>
   <si>
-    <t>Wire bundle diameter (mm):</t>
-  </si>
-  <si>
-    <t>Left block sep (mm):</t>
-  </si>
-  <si>
-    <t>Right block sep (mm):</t>
-  </si>
-  <si>
     <t>Wave type:</t>
   </si>
   <si>
@@ -191,7 +291,100 @@
     <t>Sweep date/time:</t>
   </si>
   <si>
-    <t>EMF (V):</t>
+    <t>Wire diameter (mm):</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Part Number:</t>
+  </si>
+  <si>
+    <t>P002</t>
+  </si>
+  <si>
+    <t>P001</t>
+  </si>
+  <si>
+    <t>Df to Pf (m)</t>
+  </si>
+  <si>
+    <t>Right block sep (mm)</t>
+  </si>
+  <si>
+    <t>Left block sep (mm)</t>
+  </si>
+  <si>
+    <t>EMF (V)</t>
+  </si>
+  <si>
+    <t>Df to Pr (m)</t>
+  </si>
+  <si>
+    <t>Dr to Pf (m)</t>
+  </si>
+  <si>
+    <t>Dr to Pr (m)</t>
+  </si>
+  <si>
+    <t>Inverse distances (1/m)</t>
+  </si>
+  <si>
+    <t>Rate of change of current (A/s):</t>
+  </si>
+  <si>
+    <t>triangular</t>
+  </si>
+  <si>
+    <t>Reference between wires (mm):</t>
+  </si>
+  <si>
+    <t>Reference between blocks (mm):</t>
+  </si>
+  <si>
+    <t>Block sep (mm)</t>
+  </si>
+  <si>
+    <t>5:33pm</t>
+  </si>
+  <si>
+    <t>EMF (mV)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Width measured (mm):</t>
+  </si>
+  <si>
+    <t>Length measured (mm):</t>
+  </si>
+  <si>
+    <t>Width on centers (m):</t>
+  </si>
+  <si>
+    <t>Length on centers (m):</t>
+  </si>
+  <si>
+    <t>1/x rule (mv)</t>
+  </si>
+  <si>
+    <t>Maxwell (mv)</t>
+  </si>
+  <si>
+    <t>Maxwell coeff:</t>
+  </si>
+  <si>
+    <t>P coeff (Am/s) :</t>
+  </si>
+  <si>
+    <t>η (kg m^2/ s^2 / A^2)</t>
+  </si>
+  <si>
+    <t>Permeability (kg m/s^2/A^2):</t>
+  </si>
+  <si>
+    <t>EMF x2 (mV)</t>
   </si>
 </sst>
 </file>
@@ -218,7 +411,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,8 +436,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -267,16 +466,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -289,6 +549,1141 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Measured</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20x50 5-5'!$K$11:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.00205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00386</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00513</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00691</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00809</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00972</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01202</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.01493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20x50 5-5'!$J$11:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1/x rule</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20x50 5-5'!$K$11:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.00205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00386</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00513</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00691</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00809</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00972</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01202</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.01493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20x50 5-5'!$P$11:$P$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>38.14880337703729</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.77811010347167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.84131723503829</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.9171919841949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.00325135861377</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.33122916622763</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.665328295243165</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.052207705635487</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.691486930020111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Maxwell</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20x50 5-5'!$K$11:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.00205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00386</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00513</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00691</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00809</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00972</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01202</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.01493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20x50 5-5'!$Q$11:$Q$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>30.00719111254816</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.44480278240253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.09041591529219</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.40938678638158</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.76270449930727</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.43813350410117</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.96952683488323</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.37628716030911</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.874671724001628</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2009369248"/>
+        <c:axId val="-2045835200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2009369248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2045835200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2045835200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2009369248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>942340</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>119379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>264160</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>13546</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -554,10 +1949,688 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:I31"/>
+  <dimension ref="B4:Q31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="98" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" customWidth="1"/>
+    <col min="6" max="6" width="3.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
+        <v>42428</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="5">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="3">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5">
+        <v>80.069999999999993</v>
+      </c>
+      <c r="D9" s="5">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="5">
+        <v>80.38</v>
+      </c>
+      <c r="D10" s="5">
+        <v>20.48</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3">
+        <v>12.28</v>
+      </c>
+      <c r="H11" s="5">
+        <v>46.4</v>
+      </c>
+      <c r="J11" s="19">
+        <f>H11/2</f>
+        <v>23.2</v>
+      </c>
+      <c r="K11" s="2">
+        <f>0.001*(G11-$C$19+$C$20)</f>
+        <v>2.0499999999999997E-3</v>
+      </c>
+      <c r="L11" s="2">
+        <f>K11+$D$25</f>
+        <v>2.2370000000000001E-2</v>
+      </c>
+      <c r="M11" s="2">
+        <f>K11+$C$25</f>
+        <v>8.2269999999999996E-2</v>
+      </c>
+      <c r="N11" s="2">
+        <f>K11+$C$25+$D$25</f>
+        <v>0.10259</v>
+      </c>
+      <c r="O11" s="13">
+        <f>1/K11+1/L11-1/M11-1/N11</f>
+        <v>510.60496710459552</v>
+      </c>
+      <c r="P11" s="13">
+        <f>$C$28*$C$29*O11*1000</f>
+        <v>38.148803377037289</v>
+      </c>
+      <c r="Q11" s="13">
+        <f>$C$31*(LN(L11/K11)-LN(M11/N11))*1000</f>
+        <v>30.00719111254816</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="G12" s="3">
+        <v>13.59</v>
+      </c>
+      <c r="H12" s="5">
+        <v>36</v>
+      </c>
+      <c r="J12" s="19">
+        <f t="shared" ref="J12:J19" si="0">H12/2</f>
+        <v>18</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" ref="J12:K19" si="1">0.001*(G12-$C$19+$C$20)</f>
+        <v>3.3600000000000006E-3</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" ref="L12:L19" si="2">K12+$D$25</f>
+        <v>2.3680000000000003E-2</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" ref="M12:M19" si="3">K12+$C$25</f>
+        <v>8.3580000000000002E-2</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" ref="N12:N19" si="4">K12+$C$25+$D$25</f>
+        <v>0.10390000000000001</v>
+      </c>
+      <c r="O12" s="13">
+        <f t="shared" ref="O12:O19" si="5">1/K12+1/L12-1/M12-1/N12</f>
+        <v>318.25955344383624</v>
+      </c>
+      <c r="P12" s="13">
+        <f t="shared" ref="P12:P19" si="6">$C$28*$C$29*O12*1000</f>
+        <v>23.778110103471668</v>
+      </c>
+      <c r="Q12" s="13">
+        <f>$C$31*LN(L12/K12)*1000</f>
+        <v>22.444802782402533</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="3">
+        <v>14.09</v>
+      </c>
+      <c r="H13" s="5">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="J13" s="19">
+        <f t="shared" si="0"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="1"/>
+        <v>3.8600000000000006E-3</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="2"/>
+        <v>2.418E-2</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="3"/>
+        <v>8.4080000000000002E-2</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="O13" s="13">
+        <f t="shared" si="5"/>
+        <v>278.95187159706967</v>
+      </c>
+      <c r="P13" s="13">
+        <f t="shared" si="6"/>
+        <v>20.841317235038289</v>
+      </c>
+      <c r="Q13" s="13">
+        <f>$C$31*LN(L13/K13)*1000</f>
+        <v>21.090415915292187</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="3">
+        <v>15.36</v>
+      </c>
+      <c r="H14" s="5">
+        <v>28</v>
+      </c>
+      <c r="J14" s="19">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="1"/>
+        <v>5.13E-3</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="2"/>
+        <v>2.545E-2</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="3"/>
+        <v>8.5349999999999995E-2</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10567</v>
+      </c>
+      <c r="O14" s="13">
+        <f t="shared" si="5"/>
+        <v>213.04461922859284</v>
+      </c>
+      <c r="P14" s="13">
+        <f t="shared" si="6"/>
+        <v>15.917191984194897</v>
+      </c>
+      <c r="Q14" s="13">
+        <f>$C$31*LN(L14/K14)*1000</f>
+        <v>18.409386786381582</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="3">
+        <v>17.14</v>
+      </c>
+      <c r="H15" s="5">
+        <v>23.2</v>
+      </c>
+      <c r="J15" s="19">
+        <f t="shared" si="0"/>
+        <v>11.6</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="1"/>
+        <v>6.9100000000000012E-3</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="2"/>
+        <v>2.7230000000000004E-2</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="3"/>
+        <v>8.7129999999999999E-2</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10745</v>
+      </c>
+      <c r="O15" s="13">
+        <f t="shared" si="5"/>
+        <v>160.65824410110653</v>
+      </c>
+      <c r="P15" s="13">
+        <f t="shared" si="6"/>
+        <v>12.003251358613769</v>
+      </c>
+      <c r="Q15" s="13">
+        <f>$C$31*LN(L15/K15)*1000</f>
+        <v>15.762704499307272</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3">
+        <v>34</v>
+      </c>
+      <c r="D16" s="3">
+        <v>34</v>
+      </c>
+      <c r="G16" s="3">
+        <v>18.32</v>
+      </c>
+      <c r="H16" s="5">
+        <v>20</v>
+      </c>
+      <c r="J16" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="1"/>
+        <v>8.09E-3</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="2"/>
+        <v>2.8410000000000001E-2</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="3"/>
+        <v>8.831E-2</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10863</v>
+      </c>
+      <c r="O16" s="13">
+        <f t="shared" si="5"/>
+        <v>138.27896189653376</v>
+      </c>
+      <c r="P16" s="13">
+        <f t="shared" si="6"/>
+        <v>10.331229166227633</v>
+      </c>
+      <c r="Q16" s="13">
+        <f>$C$31*LN(L16/K16)*1000</f>
+        <v>14.438133504101174</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="G17" s="3">
+        <v>19.95</v>
+      </c>
+      <c r="H17" s="5">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J17" s="19">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="1"/>
+        <v>9.7199999999999995E-3</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="2"/>
+        <v>3.0040000000000001E-2</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="3"/>
+        <v>8.9939999999999992E-2</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="4"/>
+        <v>0.11026</v>
+      </c>
+      <c r="O17" s="13">
+        <f t="shared" si="5"/>
+        <v>115.98161088865001</v>
+      </c>
+      <c r="P17" s="13">
+        <f t="shared" si="6"/>
+        <v>8.6653282952431656</v>
+      </c>
+      <c r="Q17" s="13">
+        <f>$C$31*LN(L17/K17)*1000</f>
+        <v>12.969526834883233</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3">
+        <v>120</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="3">
+        <v>22.25</v>
+      </c>
+      <c r="H18" s="5">
+        <v>13.6</v>
+      </c>
+      <c r="J18" s="19">
+        <f t="shared" si="0"/>
+        <v>6.8</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2019999999999999E-2</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2340000000000001E-2</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="3"/>
+        <v>9.2240000000000003E-2</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="4"/>
+        <v>0.11256000000000001</v>
+      </c>
+      <c r="O18" s="13">
+        <f t="shared" si="5"/>
+        <v>94.390700750478814</v>
+      </c>
+      <c r="P18" s="13">
+        <f t="shared" si="6"/>
+        <v>7.052207705635487</v>
+      </c>
+      <c r="Q18" s="13">
+        <f>$C$31*LN(L18/K18)*1000</f>
+        <v>11.376287160309106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="11">
+        <v>12.28</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="G19" s="3">
+        <v>25.16</v>
+      </c>
+      <c r="H19" s="5">
+        <v>11.2</v>
+      </c>
+      <c r="J19" s="19">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4930000000000001E-2</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="2"/>
+        <v>3.5250000000000004E-2</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="3"/>
+        <v>9.5149999999999998E-2</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="4"/>
+        <v>0.11547</v>
+      </c>
+      <c r="O19" s="13">
+        <f t="shared" si="5"/>
+        <v>76.178051194874655</v>
+      </c>
+      <c r="P19" s="13">
+        <f t="shared" si="6"/>
+        <v>5.691486930020111</v>
+      </c>
+      <c r="Q19" s="13">
+        <f>$C$31*LN(L19/K19)*1000</f>
+        <v>9.8746717240016277</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="15">
+        <f>4*PI()*0.0000001</f>
+        <v>1.2566370614359173E-6</v>
+      </c>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="15">
+        <f>2*H5*H7/C18</f>
+        <v>45666.666666666664</v>
+      </c>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="2">
+        <f>(C9-C17)*0.001</f>
+        <v>7.9909999999999995E-2</v>
+      </c>
+      <c r="D24" s="2">
+        <f>(D9-D17)*0.001</f>
+        <v>5.0340000000000003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="2">
+        <f>(C10-C17)*0.001</f>
+        <v>8.022E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <f>(D10-D17)*0.001</f>
+        <v>2.0320000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="16">
+        <f>C11*D11*D24*C23</f>
+        <v>57471.500000000007</v>
+      </c>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="17">
+        <v>1.3000000000000001E-9</v>
+      </c>
+      <c r="D29" s="18"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="17">
+        <f>C28*C21/(2*PI())</f>
+        <v>1.1494300000000002E-2</v>
+      </c>
+      <c r="D31" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:D21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:P31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="102" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,463 +2638,421 @@
     <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.33203125" customWidth="1"/>
     <col min="6" max="6" width="3.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="G10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="13" t="e">
+        <f>1000*(1/L11+1/M11-1/N11-1/O11)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="13" t="e">
+        <f t="shared" ref="P12:P31" si="0">1000*(1/L12+1/M12-1/N12-1/O12)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="D17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:I31"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.33203125" customWidth="1"/>
-    <col min="6" max="6" width="3.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="G10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>

--- a/ExperimentalData/Induced EMF/Induced Rectangular 2016-02-27.xlsx
+++ b/ExperimentalData/Induced EMF/Induced Rectangular 2016-02-27.xlsx
@@ -515,14 +515,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -530,13 +537,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,31 +748,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>38.14880337703729</c:v>
+                  <c:v>32.92559293255606</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.77811010347167</c:v>
+                  <c:v>18.90606508796169</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.84131723503829</c:v>
+                  <c:v>16.0928686192924</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.9171919841949</c:v>
+                  <c:v>11.45992094262518</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.00325135861377</c:v>
+                  <c:v>7.906359723716924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.33122916622763</c:v>
+                  <c:v>6.447154905838984</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.665328295243165</c:v>
+                  <c:v>5.046311309486464</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.052207705635487</c:v>
+                  <c:v>3.759263001973832</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.691486930020111</c:v>
+                  <c:v>2.74652116309898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -891,11 +891,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2009369248"/>
-        <c:axId val="-2045835200"/>
+        <c:axId val="1768146096"/>
+        <c:axId val="1768149392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2009369248"/>
+        <c:axId val="1768146096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -952,12 +952,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2045835200"/>
+        <c:crossAx val="1768149392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2045835200"/>
+        <c:axId val="1768149392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,7 +1014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2009369248"/>
+        <c:crossAx val="1768146096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1951,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:Q31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="98" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="98" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1973,14 +1973,14 @@
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="15">
         <v>42428</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="16"/>
       <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1988,8 +1988,8 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2099,7 +2099,7 @@
       <c r="H11" s="5">
         <v>46.4</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="12">
         <f>H11/2</f>
         <v>23.2</v>
       </c>
@@ -2119,15 +2119,15 @@
         <f>K11+$C$25+$D$25</f>
         <v>0.10259</v>
       </c>
-      <c r="O11" s="13">
-        <f>1/K11+1/L11-1/M11-1/N11</f>
-        <v>510.60496710459552</v>
-      </c>
-      <c r="P11" s="13">
+      <c r="O11" s="10">
+        <f>1/K11-1/L11-1/M11+1/N11</f>
+        <v>440.69459086485085</v>
+      </c>
+      <c r="P11" s="10">
         <f>$C$28*$C$29*O11*1000</f>
-        <v>38.148803377037289</v>
-      </c>
-      <c r="Q11" s="13">
+        <v>32.925592932556064</v>
+      </c>
+      <c r="Q11" s="10">
         <f>$C$31*(LN(L11/K11)-LN(M11/N11))*1000</f>
         <v>30.00719111254816</v>
       </c>
@@ -2148,12 +2148,12 @@
       <c r="H12" s="5">
         <v>36</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="12">
         <f t="shared" ref="J12:J19" si="0">H12/2</f>
         <v>18</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" ref="J12:K19" si="1">0.001*(G12-$C$19+$C$20)</f>
+        <f t="shared" ref="K12:K19" si="1">0.001*(G12-$C$19+$C$20)</f>
         <v>3.3600000000000006E-3</v>
       </c>
       <c r="L12" s="2">
@@ -2168,16 +2168,16 @@
         <f t="shared" ref="N12:N19" si="4">K12+$C$25+$D$25</f>
         <v>0.10390000000000001</v>
       </c>
-      <c r="O12" s="13">
-        <f t="shared" ref="O12:O19" si="5">1/K12+1/L12-1/M12-1/N12</f>
-        <v>318.25955344383624</v>
-      </c>
-      <c r="P12" s="13">
+      <c r="O12" s="10">
+        <f t="shared" ref="O12:O19" si="5">1/K12-1/L12-1/M12+1/N12</f>
+        <v>253.04937213644607</v>
+      </c>
+      <c r="P12" s="10">
         <f t="shared" ref="P12:P19" si="6">$C$28*$C$29*O12*1000</f>
-        <v>23.778110103471668</v>
-      </c>
-      <c r="Q12" s="13">
-        <f>$C$31*LN(L12/K12)*1000</f>
+        <v>18.906065087961689</v>
+      </c>
+      <c r="Q12" s="10">
+        <f t="shared" ref="Q12:Q19" si="7">$C$31*LN(L12/K12)*1000</f>
         <v>22.444802782402533</v>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       <c r="H13" s="5">
         <v>32.799999999999997</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="12">
         <f t="shared" si="0"/>
         <v>16.399999999999999</v>
       </c>
@@ -2217,16 +2217,16 @@
         <f t="shared" si="4"/>
         <v>0.10440000000000001</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="10">
         <f t="shared" si="5"/>
-        <v>278.95187159706967</v>
-      </c>
-      <c r="P13" s="13">
+        <v>215.39597378088266</v>
+      </c>
+      <c r="P13" s="10">
         <f t="shared" si="6"/>
-        <v>20.841317235038289</v>
-      </c>
-      <c r="Q13" s="13">
-        <f>$C$31*LN(L13/K13)*1000</f>
+        <v>16.0928686192924</v>
+      </c>
+      <c r="Q13" s="10">
+        <f t="shared" si="7"/>
         <v>21.090415915292187</v>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
       <c r="H14" s="5">
         <v>28</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -2266,16 +2266,16 @@
         <f t="shared" si="4"/>
         <v>0.10567</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="10">
         <f t="shared" si="5"/>
-        <v>213.04461922859284</v>
-      </c>
-      <c r="P14" s="13">
+        <v>153.3860052725154</v>
+      </c>
+      <c r="P14" s="10">
         <f t="shared" si="6"/>
-        <v>15.917191984194897</v>
-      </c>
-      <c r="Q14" s="13">
-        <f>$C$31*LN(L14/K14)*1000</f>
+        <v>11.459920942625182</v>
+      </c>
+      <c r="Q14" s="10">
+        <f t="shared" si="7"/>
         <v>18.409386786381582</v>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       <c r="H15" s="5">
         <v>23.2</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="12">
         <f t="shared" si="0"/>
         <v>11.6</v>
       </c>
@@ -2315,16 +2315,16 @@
         <f t="shared" si="4"/>
         <v>0.10745</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="10">
         <f t="shared" si="5"/>
-        <v>160.65824410110653</v>
-      </c>
-      <c r="P15" s="13">
+        <v>105.82315011944949</v>
+      </c>
+      <c r="P15" s="10">
         <f t="shared" si="6"/>
-        <v>12.003251358613769</v>
-      </c>
-      <c r="Q15" s="13">
-        <f>$C$31*LN(L15/K15)*1000</f>
+        <v>7.9063597237169247</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" si="7"/>
         <v>15.762704499307272</v>
       </c>
     </row>
@@ -2344,7 +2344,7 @@
       <c r="H16" s="5">
         <v>20</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -2364,16 +2364,16 @@
         <f t="shared" si="4"/>
         <v>0.10863</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="10">
         <f t="shared" si="5"/>
-        <v>138.27896189653376</v>
-      </c>
-      <c r="P16" s="13">
+        <v>86.292334941117744</v>
+      </c>
+      <c r="P16" s="10">
         <f t="shared" si="6"/>
-        <v>10.331229166227633</v>
-      </c>
-      <c r="Q16" s="13">
-        <f>$C$31*LN(L16/K16)*1000</f>
+        <v>6.4471549058389837</v>
+      </c>
+      <c r="Q16" s="10">
+        <f t="shared" si="7"/>
         <v>14.438133504101174</v>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
       <c r="H17" s="5">
         <v>17.600000000000001</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="12">
         <f t="shared" si="0"/>
         <v>8.8000000000000007</v>
       </c>
@@ -2413,16 +2413,16 @@
         <f t="shared" si="4"/>
         <v>0.11026</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="10">
         <f t="shared" si="5"/>
-        <v>115.98161088865001</v>
-      </c>
-      <c r="P17" s="13">
+        <v>67.542659063608966</v>
+      </c>
+      <c r="P17" s="10">
         <f t="shared" si="6"/>
-        <v>8.6653282952431656</v>
-      </c>
-      <c r="Q17" s="13">
-        <f>$C$31*LN(L17/K17)*1000</f>
+        <v>5.0463113094864642</v>
+      </c>
+      <c r="Q17" s="10">
+        <f t="shared" si="7"/>
         <v>12.969526834883233</v>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       <c r="H18" s="5">
         <v>13.6</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="12">
         <f t="shared" si="0"/>
         <v>6.8</v>
       </c>
@@ -2462,16 +2462,16 @@
         <f t="shared" si="4"/>
         <v>0.11256000000000001</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="10">
         <f t="shared" si="5"/>
-        <v>94.390700750478814</v>
-      </c>
-      <c r="P18" s="13">
+        <v>50.316083115093591</v>
+      </c>
+      <c r="P18" s="10">
         <f t="shared" si="6"/>
-        <v>7.052207705635487</v>
-      </c>
-      <c r="Q18" s="13">
-        <f>$C$31*LN(L18/K18)*1000</f>
+        <v>3.759263001973832</v>
+      </c>
+      <c r="Q18" s="10">
+        <f t="shared" si="7"/>
         <v>11.376287160309106</v>
       </c>
     </row>
@@ -2479,17 +2479,17 @@
       <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="17">
         <v>12.28</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="17"/>
       <c r="G19" s="3">
         <v>25.16</v>
       </c>
       <c r="H19" s="5">
         <v>11.2</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="12">
         <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
@@ -2509,16 +2509,16 @@
         <f t="shared" si="4"/>
         <v>0.11547</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="10">
         <f t="shared" si="5"/>
-        <v>76.178051194874655</v>
-      </c>
-      <c r="P19" s="13">
+        <v>36.760978693773701</v>
+      </c>
+      <c r="P19" s="10">
         <f t="shared" si="6"/>
-        <v>5.691486930020111</v>
-      </c>
-      <c r="Q19" s="13">
-        <f>$C$31*LN(L19/K19)*1000</f>
+        <v>2.7465211630989801</v>
+      </c>
+      <c r="Q19" s="10">
+        <f t="shared" si="7"/>
         <v>9.8746717240016277</v>
       </c>
     </row>
@@ -2526,30 +2526,30 @@
       <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="17">
         <v>2.0499999999999998</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="18">
         <f>4*PI()*0.0000001</f>
         <v>1.2566370614359173E-6</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="18"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="18">
         <f>2*H5*H7/C18</f>
         <v>45666.666666666664</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="18"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
@@ -2581,30 +2581,30 @@
       <c r="B28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="19">
         <f>C11*D11*D24*C23</f>
         <v>57471.500000000007</v>
       </c>
-      <c r="D28" s="16"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="13">
         <v>1.3000000000000001E-9</v>
       </c>
-      <c r="D29" s="18"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="13">
         <f>C28*C21/(2*PI())</f>
         <v>1.1494300000000002E-2</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2647,8 +2647,8 @@
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
@@ -2658,8 +2658,8 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2742,7 +2742,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="13" t="e">
+      <c r="P11" s="10" t="e">
         <f>1000*(1/L11+1/M11-1/N11-1/O11)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2760,7 +2760,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="13" t="e">
+      <c r="P12" s="10" t="e">
         <f t="shared" ref="P12:P31" si="0">1000*(1/L12+1/M12-1/N12-1/O12)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2782,7 +2782,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="13" t="e">
+      <c r="P13" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2800,7 +2800,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="13" t="e">
+      <c r="P14" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2818,7 +2818,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="13" t="e">
+      <c r="P15" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2836,7 +2836,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="13" t="e">
+      <c r="P16" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2854,7 +2854,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="13" t="e">
+      <c r="P17" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2874,7 +2874,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="13" t="e">
+      <c r="P18" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2887,7 +2887,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="13" t="e">
+      <c r="P19" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2900,7 +2900,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="13" t="e">
+      <c r="P20" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2913,7 +2913,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="13" t="e">
+      <c r="P21" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2926,7 +2926,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="13" t="e">
+      <c r="P22" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2939,7 +2939,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="13" t="e">
+      <c r="P23" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2952,7 +2952,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="13" t="e">
+      <c r="P24" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2965,7 +2965,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="13" t="e">
+      <c r="P25" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2978,7 +2978,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="13" t="e">
+      <c r="P26" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2991,7 +2991,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="13" t="e">
+      <c r="P27" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -3004,7 +3004,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="13" t="e">
+      <c r="P28" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -3017,7 +3017,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="13" t="e">
+      <c r="P29" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -3030,7 +3030,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="13" t="e">
+      <c r="P30" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -3043,7 +3043,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="13" t="e">
+      <c r="P31" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
